--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3754.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3754.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.248573070060219</v>
+        <v>0.6853526830673218</v>
       </c>
       <c r="B1">
-        <v>2.543163484132531</v>
+        <v>0.8333009481430054</v>
       </c>
       <c r="C1">
-        <v>4.244115623060161</v>
+        <v>3.560703754425049</v>
       </c>
       <c r="D1">
-        <v>3.447404262318711</v>
+        <v>2.181986570358276</v>
       </c>
       <c r="E1">
-        <v>1.15304366473134</v>
+        <v>0.9111688733100891</v>
       </c>
     </row>
   </sheetData>
